--- a/All or Nothing.xlsx
+++ b/All or Nothing.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirkcotton/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirkcotton/R/GitRetirementCafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1780" yWindow="880" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 " sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t xml:space="preserve"> years</t>
@@ -52,12 +48,6 @@
     <t xml:space="preserve">  Female</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Gender (enter M or F)</t>
-  </si>
-  <si>
     <t>M :=</t>
   </si>
   <si>
@@ -91,19 +81,10 @@
     <t>Input</t>
   </si>
   <si>
-    <t>log {}</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>denom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log of </t>
-  </si>
-  <si>
-    <t>b * log{}</t>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Enter "M" or "F"</t>
   </si>
 </sst>
 </file>
@@ -112,10 +93,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +142,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,15 +280,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -309,33 +324,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,371 +615,160 @@
     <col min="1" max="1" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="20">
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.2</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14">
         <v>0.06</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <f>IF(B7="F",B19,IF(B7="M",B20,"Enter M or F in cell B9"))</f>
-        <v>92.63</v>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <f>IF(B7="M",C20,IF(B7="F",C19,"Enter M or F in cell B9"))</f>
-        <v>8.7799999999999994</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <f>1/(2*B3)*((B4-B6)/B5)^2</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="19">
-        <f>B9-B10*LN(1/(B10*B11))</f>
-        <v>78.3909159245448</v>
-      </c>
-      <c r="C13" s="18" t="s">
+        <f>IF(B9="F",B21,IF(B9="M",B22,"Enter M or F in cell B9"))</f>
+        <v>88.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>IF(B9="M",C22,IF(B9="F",C21,"Enter M or F in cell B9"))</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f>1/(2*B5)*((B6-B8)/B7)^2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="19">
+        <f>$B$11-$B$12*LN(1/($B$12*(($B$6-$B$8)/$B$7)^2*(1/(2*$B$5))))</f>
+        <v>80.307965913492438</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:3" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="9" t="s">
+      <c r="C20" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8">
+        <v>92.63</v>
+      </c>
+      <c r="C21" s="9">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11">
-        <v>92.63</v>
-      </c>
-      <c r="C19" s="12">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="B22" s="10">
         <v>88.18</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C22" s="11">
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <f>B10*(LN((0.5*B10)*(B9-B6)^2)/(B3*B5^2))+B9</f>
-        <v>1248.8747254326736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <f>LN(C29)</f>
-        <v>13.060988101553574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <f>0.5*B10*((B9-B6)^2)</f>
-        <v>37618.809510999992</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <f>B3*(B5^2)</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <f>C27/C28</f>
-        <v>470235.11888749979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30">
-        <f>B10*C26</f>
-        <v>114.67547553164037</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <f>0.01*(878*LN((4.39*(B9-B6)^2) / (B3*B5^2))+9263)</f>
-        <v>207.30547553164041</v>
-      </c>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:C17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <f>IF(B7="F",B19,IF(B7="M",B20,"Enter M or F in cell B9"))</f>
-        <v>88.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <f>IF(B7="M",C20,IF(B7="F",C19,"Enter M or F in cell B9"))</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>1/(2*B3)*((B4-B6)/B5)^2</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="19">
-        <f>B9-B10*LN(1/(B10*(1/(2*B3)*((B4-B6)/B5)^2)))</f>
-        <v>80.307965913492438</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11">
-        <v>92.63</v>
-      </c>
-      <c r="C19" s="12">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="13">
-        <v>88.18</v>
-      </c>
-      <c r="C20" s="14">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
